--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>4.940199673212222</v>
+        <v>0.5650794903805556</v>
       </c>
       <c r="R2">
-        <v>44.46179705891</v>
+        <v>5.085715413425</v>
       </c>
       <c r="S2">
-        <v>0.01657239334299875</v>
+        <v>0.0004979684601803089</v>
       </c>
       <c r="T2">
-        <v>0.01657239334299875</v>
+        <v>0.0004979684601803088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>26.10835174366555</v>
+        <v>2.110231813904222</v>
       </c>
       <c r="R3">
-        <v>234.97516569299</v>
+        <v>18.992086325138</v>
       </c>
       <c r="S3">
-        <v>0.08758307421854807</v>
+        <v>0.001859612505641817</v>
       </c>
       <c r="T3">
-        <v>0.08758307421854807</v>
+        <v>0.001859612505641816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1780343333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.534103</v>
+      </c>
+      <c r="I4">
+        <v>0.003649670474736916</v>
+      </c>
+      <c r="J4">
+        <v>0.003649670474736915</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.202688333333333</v>
-      </c>
-      <c r="H4">
-        <v>6.608065</v>
-      </c>
-      <c r="I4">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="J4">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>6.740249795342222</v>
+        <v>0.08493044788977777</v>
       </c>
       <c r="R4">
-        <v>60.66224815808</v>
+        <v>0.7643740310079999</v>
       </c>
       <c r="S4">
-        <v>0.02261084130752292</v>
+        <v>7.484377875688674E-05</v>
       </c>
       <c r="T4">
-        <v>0.02261084130752292</v>
+        <v>7.484377875688671E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H5">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>14.70273390114944</v>
+        <v>1.295402318726556</v>
       </c>
       <c r="R5">
-        <v>132.324605110345</v>
+        <v>11.658620868539</v>
       </c>
       <c r="S5">
-        <v>0.04932178971398914</v>
+        <v>0.001141555319121278</v>
       </c>
       <c r="T5">
-        <v>0.04932178971398914</v>
+        <v>0.001141555319121278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1780343333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.534103</v>
+      </c>
+      <c r="I6">
+        <v>0.003649670474736916</v>
+      </c>
+      <c r="J6">
+        <v>0.003649670474736915</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>2.202688333333333</v>
-      </c>
-      <c r="H6">
-        <v>6.608065</v>
-      </c>
-      <c r="I6">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="J6">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>5.526148544433333</v>
+        <v>0.08589118049722222</v>
       </c>
       <c r="R6">
-        <v>49.7353368999</v>
+        <v>0.773020624475</v>
       </c>
       <c r="S6">
-        <v>0.01853801736937507</v>
+        <v>7.569041103662481E-05</v>
       </c>
       <c r="T6">
-        <v>0.01853801736937507</v>
+        <v>7.56904110366248E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.500353</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>10.84048645890467</v>
+        <v>15.34133319524167</v>
       </c>
       <c r="R7">
-        <v>97.564378130142</v>
+        <v>138.071998757175</v>
       </c>
       <c r="S7">
-        <v>0.03636549482009212</v>
+        <v>0.01351933701080302</v>
       </c>
       <c r="T7">
-        <v>0.03636549482009212</v>
+        <v>0.01351933701080301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.500353</v>
       </c>
       <c r="I8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>57.29064658584868</v>
@@ -948,10 +948,10 @@
         <v>515.6158192726381</v>
       </c>
       <c r="S8">
-        <v>0.1921871974616088</v>
+        <v>0.0504865873717632</v>
       </c>
       <c r="T8">
-        <v>0.1921871974616088</v>
+        <v>0.05048658737176318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>14.500353</v>
       </c>
       <c r="I9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>14.79041161681067</v>
+        <v>2.305775243445333</v>
       </c>
       <c r="R9">
-        <v>133.113704551296</v>
+        <v>20.751977191008</v>
       </c>
       <c r="S9">
-        <v>0.04961591337041387</v>
+        <v>0.002031932439676914</v>
       </c>
       <c r="T9">
-        <v>0.04961591337041387</v>
+        <v>0.002031932439676914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.500353</v>
       </c>
       <c r="I10">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J10">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>32.26282302485433</v>
+        <v>35.16885488108767</v>
       </c>
       <c r="R10">
-        <v>290.365407223689</v>
+        <v>316.519693929789</v>
       </c>
       <c r="S10">
-        <v>0.1082288629794973</v>
+        <v>0.03099206538118339</v>
       </c>
       <c r="T10">
-        <v>0.1082288629794973</v>
+        <v>0.03099206538118339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>14.500353</v>
       </c>
       <c r="I11">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J11">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>12.12625853782</v>
+        <v>2.331858156191667</v>
       </c>
       <c r="R11">
-        <v>109.13632684038</v>
+        <v>20.986723405725</v>
       </c>
       <c r="S11">
-        <v>0.04067874571089568</v>
+        <v>0.002054917644623146</v>
       </c>
       <c r="T11">
-        <v>0.04067874571089568</v>
+        <v>0.002054917644623145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H12">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I12">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J12">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>2.314035395278444</v>
+        <v>113.09640108475</v>
       </c>
       <c r="R12">
-        <v>20.826318557506</v>
+        <v>1017.86760976275</v>
       </c>
       <c r="S12">
-        <v>0.007762662911809105</v>
+        <v>0.09966463419541144</v>
       </c>
       <c r="T12">
-        <v>0.007762662911809105</v>
+        <v>0.09966463419541141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H13">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>12.22939436533711</v>
+        <v>422.3469930688601</v>
       </c>
       <c r="R13">
-        <v>110.064549288034</v>
+        <v>3801.122937619741</v>
       </c>
       <c r="S13">
-        <v>0.04102472514784785</v>
+        <v>0.3721874273983043</v>
       </c>
       <c r="T13">
-        <v>0.04102472514784785</v>
+        <v>0.3721874273983042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>35.63223</v>
+      </c>
+      <c r="H14">
+        <v>106.89669</v>
+      </c>
+      <c r="I14">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="J14">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>1.031759666666667</v>
-      </c>
-      <c r="H14">
-        <v>3.095279</v>
-      </c>
-      <c r="I14">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="J14">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>3.157195585436444</v>
+        <v>16.99818903776</v>
       </c>
       <c r="R14">
-        <v>28.414760268928</v>
+        <v>152.98370133984</v>
       </c>
       <c r="S14">
-        <v>0.01059112800366041</v>
+        <v>0.01497941823244488</v>
       </c>
       <c r="T14">
-        <v>0.01059112800366041</v>
+        <v>0.01497941823244488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H15">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I15">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J15">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>6.886897069991888</v>
+        <v>259.26501085033</v>
       </c>
       <c r="R15">
-        <v>61.98207362992699</v>
+        <v>2333.38509765297</v>
       </c>
       <c r="S15">
-        <v>0.02310278424079161</v>
+        <v>0.2284736933998843</v>
       </c>
       <c r="T15">
-        <v>0.02310278424079161</v>
+        <v>0.2284736933998843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>35.63223</v>
+      </c>
+      <c r="H16">
+        <v>106.89669</v>
+      </c>
+      <c r="I16">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="J16">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>1.031759666666667</v>
-      </c>
-      <c r="H16">
-        <v>3.095279</v>
-      </c>
-      <c r="I16">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="J16">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>2.588499286926667</v>
+        <v>17.19047242825</v>
       </c>
       <c r="R16">
-        <v>23.29649358234</v>
+        <v>154.71425185425</v>
       </c>
       <c r="S16">
-        <v>0.008683379456022586</v>
+        <v>0.01514886530230061</v>
       </c>
       <c r="T16">
-        <v>0.008683379456022586</v>
+        <v>0.01514886530230061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H17">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I17">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J17">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>0.9464224512477779</v>
+        <v>1.752661270377778</v>
       </c>
       <c r="R17">
-        <v>8.51780206123</v>
+        <v>15.7739514334</v>
       </c>
       <c r="S17">
-        <v>0.003174868662854036</v>
+        <v>0.00154450842560206</v>
       </c>
       <c r="T17">
-        <v>0.003174868662854036</v>
+        <v>0.001544508425602059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H18">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I18">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J18">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>5.001727033274445</v>
+        <v>6.545135038007112</v>
       </c>
       <c r="R18">
-        <v>45.01554329947</v>
+        <v>58.90621534206401</v>
       </c>
       <c r="S18">
-        <v>0.0167787930190759</v>
+        <v>0.005767809435719597</v>
       </c>
       <c r="T18">
-        <v>0.01677879301907591</v>
+        <v>0.005767809435719595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5521946666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.656584</v>
+      </c>
+      <c r="I19">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="J19">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.4219816666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.265945</v>
-      </c>
-      <c r="I19">
-        <v>0.03728564388507135</v>
-      </c>
-      <c r="J19">
-        <v>0.03728564388507136</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>1.291268401137778</v>
+        <v>0.2634218888248889</v>
       </c>
       <c r="R19">
-        <v>11.62141561024</v>
+        <v>2.370796999424</v>
       </c>
       <c r="S19">
-        <v>0.004331688852796107</v>
+        <v>0.0002321368844365197</v>
       </c>
       <c r="T19">
-        <v>0.004331688852796107</v>
+        <v>0.0002321368844365196</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H20">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I20">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J20">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>2.816687255420556</v>
+        <v>4.017844413465778</v>
       </c>
       <c r="R20">
-        <v>25.350185298785</v>
+        <v>36.160599721192</v>
       </c>
       <c r="S20">
-        <v>0.009448858792925915</v>
+        <v>0.00354066964007168</v>
       </c>
       <c r="T20">
-        <v>0.009448858792925917</v>
+        <v>0.003540669640071679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5521946666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.656584</v>
+      </c>
+      <c r="I21">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="J21">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.4219816666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.265945</v>
-      </c>
-      <c r="I21">
-        <v>0.03728564388507135</v>
-      </c>
-      <c r="J21">
-        <v>0.03728564388507136</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>1.058676044966667</v>
+        <v>0.2664017153111111</v>
       </c>
       <c r="R21">
-        <v>9.528084404700001</v>
+        <v>2.3976154378</v>
       </c>
       <c r="S21">
-        <v>0.003551434557419384</v>
+        <v>0.0002347628151811469</v>
       </c>
       <c r="T21">
-        <v>0.003551434557419385</v>
+        <v>0.0002347628151811469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H22">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I22">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J22">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>6.341881567731111</v>
+        <v>24.07480190946945</v>
       </c>
       <c r="R22">
-        <v>57.07693410958</v>
+        <v>216.673217185225</v>
       </c>
       <c r="S22">
-        <v>0.02127447528994617</v>
+        <v>0.02121558513463434</v>
       </c>
       <c r="T22">
-        <v>0.02127447528994617</v>
+        <v>0.02121558513463433</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H23">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I23">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J23">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>33.51606931695778</v>
+        <v>89.9048961564518</v>
       </c>
       <c r="R23">
-        <v>301.64462385262</v>
+        <v>809.1440654080661</v>
       </c>
       <c r="S23">
-        <v>0.112433002869027</v>
+        <v>0.07922744226931407</v>
       </c>
       <c r="T23">
-        <v>0.112433002869027</v>
+        <v>0.07922744226931402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.585023666666667</v>
+      </c>
+      <c r="H24">
+        <v>22.755071</v>
+      </c>
+      <c r="I24">
+        <v>0.155491563947857</v>
+      </c>
+      <c r="J24">
+        <v>0.1554915639478569</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="L24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G24">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H24">
-        <v>8.48297</v>
-      </c>
-      <c r="I24">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J24">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>8.652659561671111</v>
+        <v>3.618400143406222</v>
       </c>
       <c r="R24">
-        <v>77.87393605504001</v>
+        <v>32.565601290656</v>
       </c>
       <c r="S24">
-        <v>0.02902621092354232</v>
+        <v>0.003188664919540331</v>
       </c>
       <c r="T24">
-        <v>0.02902621092354233</v>
+        <v>0.003188664919540331</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H25">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I25">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J25">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>18.87433773751222</v>
+        <v>55.18967640359145</v>
       </c>
       <c r="R25">
-        <v>169.86903963761</v>
+        <v>496.7070876323231</v>
       </c>
       <c r="S25">
-        <v>0.06331585153748917</v>
+        <v>0.04863513655050123</v>
       </c>
       <c r="T25">
-        <v>0.06331585153748918</v>
+        <v>0.04863513655050122</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.585023666666667</v>
+      </c>
+      <c r="H26">
+        <v>22.755071</v>
+      </c>
+      <c r="I26">
+        <v>0.155491563947857</v>
+      </c>
+      <c r="J26">
+        <v>0.1554915639478569</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H26">
-        <v>8.48297</v>
-      </c>
-      <c r="I26">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J26">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>7.094081598466667</v>
+        <v>3.659331459452778</v>
       </c>
       <c r="R26">
-        <v>63.8467343862</v>
+        <v>32.933983135075</v>
       </c>
       <c r="S26">
-        <v>0.02379780543985079</v>
+        <v>0.003224735073866991</v>
       </c>
       <c r="T26">
-        <v>0.02379780543985079</v>
+        <v>0.00322473507386699</v>
       </c>
     </row>
   </sheetData>
